--- a/Arya_Phones_Supplier_Selection.xlsx
+++ b/Arya_Phones_Supplier_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Asistan\Arya Phone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B43889-33A7-470A-9EAE-92FE87B72E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408A568-E6E8-4A5E-AD56-348D2A44B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arya Case (Solution)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -22,6 +22,15 @@
     <sheet name="Best Global Policy" sheetId="11" r:id="rId7"/>
     <sheet name="Arya Case" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Min Cost Agent'!$C$55</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="68">
   <si>
     <t>Q1. Equal Weights</t>
   </si>
@@ -395,6 +404,30 @@
   </si>
   <si>
     <t>Penalty2</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Matches </t>
+  </si>
+  <si>
+    <t>Utility Threshold</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Best Utility Supplier</t>
+  </si>
+  <si>
+    <t>Min Cost Supplier</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
@@ -768,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -881,6 +914,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,6 +965,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,22 +1657,22 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -1644,12 +1686,12 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -1913,88 +1955,88 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:18">
       <c r="B28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:18">
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:18">
       <c r="B31"/>
@@ -2022,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EB1D23-A9BF-4888-82FF-4B380FFFC271}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2034,143 +2076,185 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34">
-        <v>1</v>
-      </c>
-      <c r="E1" s="34">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
+    <row r="1" spans="1:12" ht="55.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34">
-        <v>2</v>
-      </c>
-      <c r="F2" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="55.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(B2:F2)</f>
+        <v>14</v>
+      </c>
+      <c r="K2" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B2:D2)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="26" t="e">
+        <f>SUMPRODUCT(B2:F2,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>13</v>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J8" si="0">SUM(B3:F3)</f>
+        <v>16</v>
+      </c>
+      <c r="K3" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B3:D3)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="26" t="e">
+        <f>SUMPRODUCT(B3:F3,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>SUM(B4:F4)</f>
-        <v>14</v>
-      </c>
-      <c r="K4" s="26">
-        <f>SUMPRODUCT($C$1:$E$1,B4:D4)/SUM($C$1:$E$1)</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L4" s="26">
-        <f>SUMPRODUCT(B4:F4,$C$2:$G$2)/SUM($C$2:$G$2)</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K4" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B4:D4)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="26" t="e">
+        <f>SUMPRODUCT(B4:F4,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2179,30 +2263,30 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J10" si="0">SUM(B5:F5)</f>
-        <v>16</v>
-      </c>
-      <c r="K5" s="26">
-        <f t="shared" ref="K5:K10" si="1">SUMPRODUCT($C$1:$E$1,B5:D5)/SUM($C$1:$E$1)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L5" s="26">
-        <f t="shared" ref="L5:L10" si="2">SUMPRODUCT(B5:F5,$C$2:$G$2)/SUM($C$2:$G$2)</f>
-        <v>3</v>
+        <f>SUM(B5:F5)</f>
+        <v>13</v>
+      </c>
+      <c r="K5" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B5:D5)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="26" t="e">
+        <f>SUMPRODUCT(B5:F5,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2211,89 +2295,89 @@
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K6" s="26">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L6" s="26">
-        <f t="shared" si="2"/>
-        <v>2.1666666666666665</v>
+        <v>17</v>
+      </c>
+      <c r="K6" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B6:D6)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="26" t="e">
+        <f>SUMPRODUCT(B6:F6,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f>SUM(B7:F7)</f>
-        <v>13</v>
-      </c>
-      <c r="K7" s="26">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L7" s="26">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K7" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B7:D7)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="26" t="e">
+        <f>SUMPRODUCT(B7:F7,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -2302,101 +2386,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K8" s="26">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L8" s="26">
-        <f t="shared" si="2"/>
-        <v>2.8333333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L9" s="26">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K10" s="26">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="26">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+      <c r="K8" s="26" t="e">
+        <f>SUMPRODUCT(#REF!,B8:D8)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="26" t="e">
+        <f>SUMPRODUCT(B8:F8,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -2408,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A3A3A4-DB29-441F-91D6-E725D17F3E23}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2720,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9437A9F-1BD5-4B34-BB38-A470C3B347D5}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:I34"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2732,7 +2734,7 @@
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="14" width="13.6640625" customWidth="1"/>
@@ -3275,22 +3277,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -3304,12 +3306,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -4458,6 +4460,9 @@
       </c>
       <c r="L36" s="46">
         <v>10</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>57</v>
@@ -4490,7 +4495,14 @@
         <v>1.9000000000000004</v>
       </c>
       <c r="E37">
-        <f t="shared" si="22"/>
+        <f>_xlfn.IFNA(
+  SUMPRODUCT(
+    _xlfn.XLOOKUP(TRIM($B37), $R$4:$R$10, $S$4:$W$10),
+    _xlfn.XLOOKUP(--TRIM(E$36), $B$25:$B$34, $C$25:$G$34)
+  )
+  - _xlfn.XLOOKUP(TRIM($B37), $R$4:$R$10, $X$4:$X$10)
+    * _xlfn.XLOOKUP(--TRIM(E$36), $B$25:$B$34, $H$25:$H$34), ""
+)</f>
         <v>2.5</v>
       </c>
       <c r="F37">
@@ -4520,6 +4532,10 @@
       <c r="L37">
         <f t="shared" si="22"/>
         <v>1.9</v>
+      </c>
+      <c r="M37">
+        <f>SUM(C37:L37)</f>
+        <v>21.849999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:25">
@@ -4573,6 +4589,10 @@
         <f t="shared" si="22"/>
         <v>1.95</v>
       </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M43" si="24">SUM(C38:L38)</f>
+        <v>24.4</v>
+      </c>
     </row>
     <row r="39" spans="2:25">
       <c r="B39" s="10" t="s">
@@ -4618,6 +4638,10 @@
         <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
+      <c r="M39">
+        <f t="shared" si="24"/>
+        <v>20.65</v>
+      </c>
     </row>
     <row r="40" spans="2:25">
       <c r="B40" s="10" t="s">
@@ -4663,6 +4687,10 @@
         <f t="shared" si="22"/>
         <v>1.85</v>
       </c>
+      <c r="M40">
+        <f t="shared" si="24"/>
+        <v>26.700000000000003</v>
+      </c>
     </row>
     <row r="41" spans="2:25">
       <c r="B41" s="10" t="s">
@@ -4708,6 +4736,10 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999998</v>
       </c>
+      <c r="M41">
+        <f t="shared" si="24"/>
+        <v>27.05</v>
+      </c>
     </row>
     <row r="42" spans="2:25">
       <c r="B42" s="10" t="s">
@@ -4753,6 +4785,10 @@
         <f t="shared" si="22"/>
         <v>2.65</v>
       </c>
+      <c r="M42">
+        <f t="shared" si="24"/>
+        <v>30.85</v>
+      </c>
     </row>
     <row r="43" spans="2:25">
       <c r="B43" s="10" t="s">
@@ -4798,18 +4834,140 @@
         <f t="shared" si="22"/>
         <v>1.65</v>
       </c>
+      <c r="M43">
+        <f t="shared" si="24"/>
+        <v>22.299999999999997</v>
+      </c>
     </row>
     <row r="44" spans="2:25">
-      <c r="B44"/>
+      <c r="B44" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <f>SUM(C37:C43)</f>
+        <v>21.4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:M44" si="25">SUM(D37:D43)</f>
+        <v>13.500000000000002</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="25"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="25"/>
+        <v>16.55</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="25"/>
+        <v>16.45</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="25"/>
+        <v>14.45</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="25"/>
+        <v>18.099999999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="25"/>
+        <v>28.1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="25"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="25"/>
+        <v>173.8</v>
+      </c>
     </row>
     <row r="45" spans="2:25">
       <c r="B45"/>
     </row>
     <row r="46" spans="2:25">
-      <c r="B46"/>
+      <c r="B46" s="68" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47"/>
+      <c r="B47" t="str">
+        <f>_xlfn.XLOOKUP(C47,M37:M43,B37:B43)</f>
+        <v>F</v>
+      </c>
+      <c r="C47">
+        <f>MAX(M37:M43)</f>
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25">
+      <c r="B48" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="str">
+        <f>_xlfn.XLOOKUP(C49,E4:E10,B4:B10)</f>
+        <v>A</v>
+      </c>
+      <c r="C49">
+        <f>MIN(E4:E10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51"/>
+      <c r="C51">
+        <f>C49*(SUM(E25:E34))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <f>C49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5381,22 +5539,22 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -5408,20 +5566,20 @@
       <c r="L12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="50" t="s">
+      <c r="Y12" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="50" t="s">
+      <c r="Z12" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7498,22 +7656,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -7527,12 +7685,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -9053,22 +9211,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -9082,12 +9240,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -10436,22 +10594,22 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -10465,12 +10623,12 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -10723,88 +10881,88 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39"/>

--- a/Arya_Phones_Supplier_Selection.xlsx
+++ b/Arya_Phones_Supplier_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Asistan\Arya Phone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408A568-E6E8-4A5E-AD56-348D2A44B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7AD1C8-0004-4273-9443-0580903482A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Arya Case (Solution)" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="Supplier" sheetId="13" r:id="rId2"/>
     <sheet name="User" sheetId="14" r:id="rId3"/>
-    <sheet name="Min Cost Agent" sheetId="8" r:id="rId4"/>
+    <sheet name="Max Profit Agent" sheetId="8" r:id="rId4"/>
     <sheet name="Min Cost Agent (2)" sheetId="12" state="hidden" r:id="rId5"/>
     <sheet name="Max Match Agent" sheetId="10" r:id="rId6"/>
     <sheet name="Best Global Policy" sheetId="11" r:id="rId7"/>
@@ -26,7 +26,7 @@
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Min Cost Agent'!$C$55</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Max Profit Agent'!$C$55</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="73">
   <si>
     <t>Q1. Equal Weights</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -801,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -918,6 +933,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,31 +984,12 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1657,22 +1677,22 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -1686,12 +1706,12 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -1955,100 +1975,94 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:18">
       <c r="B28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="1:18">
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:18">
       <c r="B31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="B23:B24"/>
@@ -2057,6 +2071,12 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2064,16 +2084,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EB1D23-A9BF-4888-82FF-4B380FFFC271}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2">
@@ -2184,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J8" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="J3:J9" si="0">SUM(B3:F3)</f>
         <v>16</v>
       </c>
       <c r="K3" s="26" t="e">
@@ -2398,6 +2419,154 @@
       </c>
       <c r="L8" s="26" t="e">
         <f>SUMPRODUCT(B8:F8,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="69">
+        <v>3</v>
+      </c>
+      <c r="C9" s="69">
+        <v>4</v>
+      </c>
+      <c r="D9" s="69">
+        <v>1</v>
+      </c>
+      <c r="E9" s="69">
+        <v>2</v>
+      </c>
+      <c r="F9" s="69">
+        <v>1</v>
+      </c>
+      <c r="G9" s="72">
+        <v>0</v>
+      </c>
+      <c r="H9" s="72">
+        <v>0</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0</v>
+      </c>
+      <c r="J9" s="70">
+        <f>SUM(B9:I9)</f>
+        <v>11</v>
+      </c>
+      <c r="L9" s="71" t="e">
+        <f>SUMPRODUCT(B9:F9,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="69">
+        <v>1</v>
+      </c>
+      <c r="C10" s="69">
+        <v>2</v>
+      </c>
+      <c r="D10" s="69">
+        <v>3</v>
+      </c>
+      <c r="E10" s="69">
+        <v>1</v>
+      </c>
+      <c r="F10" s="69">
+        <v>5</v>
+      </c>
+      <c r="G10" s="72">
+        <v>1</v>
+      </c>
+      <c r="H10" s="72">
+        <v>0</v>
+      </c>
+      <c r="I10" s="72">
+        <v>0</v>
+      </c>
+      <c r="J10" s="70">
+        <f>SUM(B10:I10)</f>
+        <v>13</v>
+      </c>
+      <c r="L10" s="71" t="e">
+        <f>SUMPRODUCT(B10:F10,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="69">
+        <v>1</v>
+      </c>
+      <c r="C11" s="69">
+        <v>4</v>
+      </c>
+      <c r="D11" s="69">
+        <v>4</v>
+      </c>
+      <c r="E11" s="69">
+        <v>1</v>
+      </c>
+      <c r="F11" s="69">
+        <v>1</v>
+      </c>
+      <c r="G11" s="72">
+        <v>1</v>
+      </c>
+      <c r="H11" s="72">
+        <v>1</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0</v>
+      </c>
+      <c r="J11" s="70">
+        <f t="shared" ref="J11:J12" si="1">SUM(B11:I11)</f>
+        <v>13</v>
+      </c>
+      <c r="L11" s="71" t="e">
+        <f>SUMPRODUCT(B11:F11,#REF!)/SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="69">
+        <v>5</v>
+      </c>
+      <c r="C12" s="69">
+        <v>1</v>
+      </c>
+      <c r="D12" s="69">
+        <v>1</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1</v>
+      </c>
+      <c r="F12" s="69">
+        <v>5</v>
+      </c>
+      <c r="G12" s="72">
+        <v>1</v>
+      </c>
+      <c r="H12" s="72">
+        <v>1</v>
+      </c>
+      <c r="I12" s="72">
+        <v>1</v>
+      </c>
+      <c r="J12" s="70">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="71" t="e">
+        <f>SUMPRODUCT(B12:F12,#REF!)/SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2724,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9437A9F-1BD5-4B34-BB38-A470C3B347D5}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2734,7 +2903,7 @@
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="14" width="13.6640625" customWidth="1"/>
@@ -3277,22 +3446,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -3306,12 +3475,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -4840,7 +5009,7 @@
       </c>
     </row>
     <row r="44" spans="2:25">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C44">
@@ -4892,8 +5061,11 @@
       <c r="B45"/>
     </row>
     <row r="46" spans="2:25">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="41" t="s">
         <v>65</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:25">
@@ -4905,9 +5077,12 @@
         <f>MAX(M37:M43)</f>
         <v>30.85</v>
       </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="2:25">
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="41" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4922,7 +5097,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4940,12 +5115,12 @@
       <c r="B53"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="41" t="s">
         <v>63</v>
       </c>
       <c r="C55">
@@ -4954,7 +5129,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="41" t="s">
         <v>61</v>
       </c>
       <c r="C56">
@@ -4962,7 +5137,7 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="41" t="s">
         <v>62</v>
       </c>
       <c r="C57">
@@ -5539,22 +5714,22 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -5574,12 +5749,12 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7656,22 +7831,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -7685,12 +7860,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -9211,22 +9386,22 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -9240,12 +9415,12 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -10594,22 +10769,22 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="C12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -10623,12 +10798,12 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -10881,94 +11056,100 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="57" t="s">
+      <c r="B31" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="B31:B32"/>
@@ -10977,33 +11158,12 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A83B93D2C0B4B44894B57C95EDB7C175" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abc6b69c464f0c1f564918d5cc6b2be0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d221033-8f68-4f64-8173-c37f62a0bd87" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61d3ffffcd31529c89d25309ac155b3a" ns2:_="">
     <xsd:import namespace="1d221033-8f68-4f64-8173-c37f62a0bd87"/>
@@ -11147,31 +11307,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29F9414-31D7-4DF4-88B7-66C178E0A1D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d221033-8f68-4f64-8173-c37f62a0bd87"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C919FE8E-9B8B-494A-96CD-460D2B41AC19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{854EE915-40F5-4CCE-9CC0-BE40D0FEFA5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11187,4 +11338,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C919FE8E-9B8B-494A-96CD-460D2B41AC19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29F9414-31D7-4DF4-88B7-66C178E0A1D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d221033-8f68-4f64-8173-c37f62a0bd87"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Arya_Phones_Supplier_Selection.xlsx
+++ b/Arya_Phones_Supplier_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Asistan\Arya Phone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7AD1C8-0004-4273-9443-0580903482A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506377AE-7445-4B0E-87CA-AD407C09C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arya Case (Solution)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -816,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -990,6 +990,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2086,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EB1D23-A9BF-4888-82FF-4B380FFFC271}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2577,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A3A3A4-DB29-441F-91D6-E725D17F3E23}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2880,8 +2883,38 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B11&amp;"x1+ "&amp;C11&amp;"x2+ "&amp;D11&amp;"x3+ "&amp;E11&amp;"x4+ "&amp;F11&amp;"x5+ -"&amp;G11&amp;"x6"</f>
         <v>0,15x1+ 0,15x2+ 0,15x3+ 0,15x4+ 0,1x5+ -0,3x6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="73">
+        <v>11</v>
+      </c>
+      <c r="B12" s="69">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="69">
+        <v>0.22</v>
+      </c>
+      <c r="D12" s="69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>B12&amp;"x1+ "&amp;C12&amp;"x2+ "&amp;D12&amp;"x3+ "&amp;E12&amp;"x4+ "&amp;F12&amp;"x5+ -"&amp;G12&amp;"x6"</f>
+        <v>0,12x1+ 0,22x2+ 0,55x3+ 0,1x4+ 0,2x5+ -0,1x6</v>
       </c>
     </row>
   </sheetData>
